--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="H2">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="I2">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="J2">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N2">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P2">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q2">
-        <v>38.74844517302498</v>
+        <v>42.01355415279999</v>
       </c>
       <c r="R2">
-        <v>38.74844517302498</v>
+        <v>378.1219873752</v>
       </c>
       <c r="S2">
-        <v>0.01445152413112048</v>
+        <v>0.01490532076378785</v>
       </c>
       <c r="T2">
-        <v>0.01445152413112048</v>
+        <v>0.01490532076378785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="H3">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="I3">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="J3">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N3">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P3">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q3">
-        <v>697.8148105090274</v>
+        <v>701.3127827464212</v>
       </c>
       <c r="R3">
-        <v>697.8148105090274</v>
+        <v>6311.815044717791</v>
       </c>
       <c r="S3">
-        <v>0.260255283227335</v>
+        <v>0.2488076096719232</v>
       </c>
       <c r="T3">
-        <v>0.260255283227335</v>
+        <v>0.2488076096719231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="H4">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="I4">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="J4">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N4">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P4">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q4">
-        <v>4.589086545089624</v>
+        <v>4.73149013776</v>
       </c>
       <c r="R4">
-        <v>4.589086545089624</v>
+        <v>42.58341123984</v>
       </c>
       <c r="S4">
-        <v>0.001711534350604904</v>
+        <v>0.001678610144181564</v>
       </c>
       <c r="T4">
-        <v>0.001711534350604904</v>
+        <v>0.001678610144181564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="H5">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="I5">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="J5">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N5">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O5">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P5">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q5">
-        <v>3.984422368209112</v>
+        <v>4.451656631509333</v>
       </c>
       <c r="R5">
-        <v>3.984422368209112</v>
+        <v>40.06490968358399</v>
       </c>
       <c r="S5">
-        <v>0.001486020296959828</v>
+        <v>0.00157933246450819</v>
       </c>
       <c r="T5">
-        <v>0.001486020296959828</v>
+        <v>0.00157933246450819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.96921174666234</v>
+        <v>9.012447999999999</v>
       </c>
       <c r="H6">
-        <v>8.96921174666234</v>
+        <v>27.037344</v>
       </c>
       <c r="I6">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017198</v>
       </c>
       <c r="J6">
-        <v>0.2990360678906331</v>
+        <v>0.2887266436017197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N6">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P6">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q6">
-        <v>56.65981936944173</v>
+        <v>61.32288321271466</v>
       </c>
       <c r="R6">
-        <v>56.65981936944173</v>
+        <v>551.9059489144319</v>
       </c>
       <c r="S6">
-        <v>0.02113170588461297</v>
+        <v>0.02175577055731899</v>
       </c>
       <c r="T6">
-        <v>0.02113170588461297</v>
+        <v>0.02175577055731898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="H7">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="I7">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="J7">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N7">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P7">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q7">
-        <v>40.29169324897421</v>
+        <v>45.1390915901</v>
       </c>
       <c r="R7">
-        <v>40.29169324897421</v>
+        <v>406.2518243109</v>
       </c>
       <c r="S7">
-        <v>0.01502709011087265</v>
+        <v>0.01601418048778907</v>
       </c>
       <c r="T7">
-        <v>0.01502709011087265</v>
+        <v>0.01601418048778907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="H8">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="I8">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="J8">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N8">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P8">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q8">
-        <v>725.6069285895903</v>
+        <v>753.4859302444627</v>
       </c>
       <c r="R8">
-        <v>725.6069285895903</v>
+        <v>6781.373372200164</v>
       </c>
       <c r="S8">
-        <v>0.2706205627450743</v>
+        <v>0.2673172909972984</v>
       </c>
       <c r="T8">
-        <v>0.2706205627450743</v>
+        <v>0.2673172909972984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="H9">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="I9">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="J9">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N9">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P9">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q9">
-        <v>4.771857723376908</v>
+        <v>5.08348248542</v>
       </c>
       <c r="R9">
-        <v>4.771857723376908</v>
+        <v>45.75134236878001</v>
       </c>
       <c r="S9">
-        <v>0.001779700236531361</v>
+        <v>0.001803487911703676</v>
       </c>
       <c r="T9">
-        <v>0.001779700236531361</v>
+        <v>0.001803487911703676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="H10">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="I10">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="J10">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N10">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O10">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P10">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q10">
-        <v>4.143111371756238</v>
+        <v>4.782831171258667</v>
       </c>
       <c r="R10">
-        <v>4.143111371756238</v>
+        <v>43.045480541328</v>
       </c>
       <c r="S10">
-        <v>0.001545204554647185</v>
+        <v>0.001696824613013666</v>
       </c>
       <c r="T10">
-        <v>0.001545204554647185</v>
+        <v>0.001696824613013666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.32643172565788</v>
+        <v>9.682916000000001</v>
       </c>
       <c r="H11">
-        <v>9.32643172565788</v>
+        <v>29.048748</v>
       </c>
       <c r="I11">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696706</v>
       </c>
       <c r="J11">
-        <v>0.3109458834806766</v>
+        <v>0.3102060435696705</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N11">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P11">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q11">
-        <v>58.91643010143552</v>
+        <v>65.88491018494933</v>
       </c>
       <c r="R11">
-        <v>58.91643010143552</v>
+        <v>592.964191664544</v>
       </c>
       <c r="S11">
-        <v>0.02197332583355111</v>
+        <v>0.02337425955986575</v>
       </c>
       <c r="T11">
-        <v>0.02197332583355111</v>
+        <v>0.02337425955986575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="H12">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="I12">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="J12">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N12">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P12">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q12">
-        <v>12.76677071525527</v>
+        <v>15.0251872006</v>
       </c>
       <c r="R12">
-        <v>12.76677071525527</v>
+        <v>135.2266848054</v>
       </c>
       <c r="S12">
-        <v>0.004761463182435884</v>
+        <v>0.005330547231171993</v>
       </c>
       <c r="T12">
-        <v>0.004761463182435884</v>
+        <v>0.005330547231171992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="H13">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="I13">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="J13">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N13">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P13">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q13">
-        <v>229.9148171674258</v>
+        <v>250.8084845337093</v>
       </c>
       <c r="R13">
-        <v>229.9148171674258</v>
+        <v>2257.276360803384</v>
       </c>
       <c r="S13">
-        <v>0.085748460707535</v>
+        <v>0.0889803537843588</v>
       </c>
       <c r="T13">
-        <v>0.085748460707535</v>
+        <v>0.08898035378435878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="H14">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="I14">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="J14">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N14">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P14">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q14">
-        <v>1.512004299837263</v>
+        <v>1.69210928452</v>
       </c>
       <c r="R14">
-        <v>1.512004299837263</v>
+        <v>15.22898356068</v>
       </c>
       <c r="S14">
-        <v>0.0005639133784048633</v>
+        <v>0.0006003165445471666</v>
       </c>
       <c r="T14">
-        <v>0.0005639133784048633</v>
+        <v>0.0006003165445471665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="H15">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="I15">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="J15">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N15">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O15">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P15">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q15">
-        <v>1.312780592369999</v>
+        <v>1.592033228085333</v>
       </c>
       <c r="R15">
-        <v>1.312780592369999</v>
+        <v>14.328299052768</v>
       </c>
       <c r="S15">
-        <v>0.0004896113979486577</v>
+        <v>0.0005648121519288089</v>
       </c>
       <c r="T15">
-        <v>0.0004896113979486577</v>
+        <v>0.0005648121519288088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.95516037752988</v>
+        <v>3.223096</v>
       </c>
       <c r="H16">
-        <v>2.95516037752988</v>
+        <v>9.669288</v>
       </c>
       <c r="I16">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="J16">
-        <v>0.09852588658212692</v>
+        <v>0.1032564837085472</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N16">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O16">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P16">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q16">
-        <v>18.66817931474104</v>
+        <v>21.93072732196266</v>
       </c>
       <c r="R16">
-        <v>18.66817931474104</v>
+        <v>197.376545897664</v>
       </c>
       <c r="S16">
-        <v>0.006962437915802522</v>
+        <v>0.007780453996540408</v>
       </c>
       <c r="T16">
-        <v>0.006962437915802522</v>
+        <v>0.007780453996540406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="H17">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="I17">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="J17">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N17">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O17">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P17">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q17">
-        <v>13.24203346505182</v>
+        <v>14.54559980995833</v>
       </c>
       <c r="R17">
-        <v>13.24203346505182</v>
+        <v>130.910398289625</v>
       </c>
       <c r="S17">
-        <v>0.004938716000365437</v>
+        <v>0.005160402047410965</v>
       </c>
       <c r="T17">
-        <v>0.004938716000365437</v>
+        <v>0.005160402047410964</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="H18">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="I18">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="J18">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N18">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P18">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q18">
-        <v>238.4737511894328</v>
+        <v>242.8029545497961</v>
       </c>
       <c r="R18">
-        <v>238.4737511894328</v>
+        <v>2185.226590948165</v>
       </c>
       <c r="S18">
-        <v>0.08894057953974585</v>
+        <v>0.08614019910807572</v>
       </c>
       <c r="T18">
-        <v>0.08894057953974585</v>
+        <v>0.0861401991080757</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="H19">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="I19">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="J19">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N19">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O19">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P19">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q19">
-        <v>1.568290994199698</v>
+        <v>1.638099023908334</v>
       </c>
       <c r="R19">
-        <v>1.568290994199698</v>
+        <v>14.742891215175</v>
       </c>
       <c r="S19">
-        <v>0.0005849059245111006</v>
+        <v>0.0005811551030746172</v>
       </c>
       <c r="T19">
-        <v>0.0005849059245111006</v>
+        <v>0.0005811551030746171</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="H20">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="I20">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="J20">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N20">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O20">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P20">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q20">
-        <v>1.361650876651346</v>
+        <v>1.541217284731111</v>
       </c>
       <c r="R20">
-        <v>1.361650876651346</v>
+        <v>13.87095556258</v>
       </c>
       <c r="S20">
-        <v>0.0005078379381216366</v>
+        <v>0.0005467839714788891</v>
       </c>
       <c r="T20">
-        <v>0.0005078379381216366</v>
+        <v>0.0005467839714788891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.0651707848944</v>
+        <v>3.120218333333334</v>
       </c>
       <c r="H21">
-        <v>3.0651707848944</v>
+        <v>9.360655000000001</v>
       </c>
       <c r="I21">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307608</v>
       </c>
       <c r="J21">
-        <v>0.1021936648188905</v>
+        <v>0.09996065072307606</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N21">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O21">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P21">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q21">
-        <v>19.36313111051639</v>
+        <v>21.23072271298222</v>
       </c>
       <c r="R21">
-        <v>19.36313111051639</v>
+        <v>191.07650441684</v>
       </c>
       <c r="S21">
-        <v>0.007221625416146527</v>
+        <v>0.007532110493035885</v>
       </c>
       <c r="T21">
-        <v>0.007221625416146527</v>
+        <v>0.007532110493035883</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.67777096902214</v>
+        <v>6.175787666666667</v>
       </c>
       <c r="H22">
-        <v>5.67777096902214</v>
+        <v>18.527363</v>
       </c>
       <c r="I22">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="J22">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.32016171180753</v>
+        <v>4.661725</v>
       </c>
       <c r="N22">
-        <v>4.32016171180753</v>
+        <v>13.985175</v>
       </c>
       <c r="O22">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636418</v>
       </c>
       <c r="P22">
-        <v>0.04832702701403183</v>
+        <v>0.05162433427636419</v>
       </c>
       <c r="Q22">
-        <v>24.52888874878179</v>
+        <v>28.78982376039167</v>
       </c>
       <c r="R22">
-        <v>24.52888874878179</v>
+        <v>259.108413843525</v>
       </c>
       <c r="S22">
-        <v>0.009148233589237368</v>
+        <v>0.01021388374620432</v>
       </c>
       <c r="T22">
-        <v>0.009148233589237368</v>
+        <v>0.01021388374620431</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.67777096902214</v>
+        <v>6.175787666666667</v>
       </c>
       <c r="H23">
-        <v>5.67777096902214</v>
+        <v>18.527363</v>
       </c>
       <c r="I23">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="J23">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>77.80113015714019</v>
+        <v>77.81601433333333</v>
       </c>
       <c r="N23">
-        <v>77.80113015714019</v>
+        <v>233.448043</v>
       </c>
       <c r="O23">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646796</v>
       </c>
       <c r="P23">
-        <v>0.8703140228640195</v>
+        <v>0.8617410799646797</v>
       </c>
       <c r="Q23">
-        <v>441.7369981633235</v>
+        <v>480.5751815889566</v>
       </c>
       <c r="R23">
-        <v>441.7369981633235</v>
+        <v>4325.176634300609</v>
       </c>
       <c r="S23">
-        <v>0.1647491366443293</v>
+        <v>0.1704956264030236</v>
       </c>
       <c r="T23">
-        <v>0.1647491366443293</v>
+        <v>0.1704956264030236</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.67777096902214</v>
+        <v>6.175787666666667</v>
       </c>
       <c r="H24">
-        <v>5.67777096902214</v>
+        <v>18.527363</v>
       </c>
       <c r="I24">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="J24">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.511648813152096</v>
+        <v>0.524995</v>
       </c>
       <c r="N24">
-        <v>0.511648813152096</v>
+        <v>1.574985</v>
       </c>
       <c r="O24">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249621</v>
       </c>
       <c r="P24">
-        <v>0.005723504735324655</v>
+        <v>0.005813838734249622</v>
       </c>
       <c r="Q24">
-        <v>2.905024777649604</v>
+        <v>3.242257646061667</v>
       </c>
       <c r="R24">
-        <v>2.905024777649604</v>
+        <v>29.180318814555</v>
       </c>
       <c r="S24">
-        <v>0.001083450845272426</v>
+        <v>0.001150269030742597</v>
       </c>
       <c r="T24">
-        <v>0.001083450845272426</v>
+        <v>0.001150269030742597</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.67777096902214</v>
+        <v>6.175787666666667</v>
       </c>
       <c r="H25">
-        <v>5.67777096902214</v>
+        <v>18.527363</v>
       </c>
       <c r="I25">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="J25">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.444233281669575</v>
+        <v>0.4939453333333333</v>
       </c>
       <c r="N25">
-        <v>0.444233281669575</v>
+        <v>1.481836</v>
       </c>
       <c r="O25">
-        <v>0.004969368101453609</v>
+        <v>0.005469992117134779</v>
       </c>
       <c r="P25">
-        <v>0.004969368101453609</v>
+        <v>0.00546999211713478</v>
       </c>
       <c r="Q25">
-        <v>2.522254830136948</v>
+        <v>3.050501497607556</v>
       </c>
       <c r="R25">
-        <v>2.522254830136948</v>
+        <v>27.454513478468</v>
       </c>
       <c r="S25">
-        <v>0.0009406939137763012</v>
+        <v>0.001082238916205226</v>
       </c>
       <c r="T25">
-        <v>0.0009406939137763012</v>
+        <v>0.001082238916205226</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.67777096902214</v>
+        <v>6.175787666666667</v>
       </c>
       <c r="H26">
-        <v>5.67777096902214</v>
+        <v>18.527363</v>
       </c>
       <c r="I26">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="J26">
-        <v>0.1892984972276727</v>
+        <v>0.1978501783969864</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.3171459175915</v>
+        <v>6.804242666666666</v>
       </c>
       <c r="N26">
-        <v>6.3171459175915</v>
+        <v>20.412728</v>
       </c>
       <c r="O26">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="P26">
-        <v>0.07066607728517048</v>
+        <v>0.07535075490757169</v>
       </c>
       <c r="Q26">
-        <v>35.86730769797774</v>
+        <v>42.02155794180711</v>
       </c>
       <c r="R26">
-        <v>35.86730769797774</v>
+        <v>378.194021476264</v>
       </c>
       <c r="S26">
-        <v>0.01337698223505735</v>
+        <v>0.01490816030081066</v>
       </c>
       <c r="T26">
-        <v>0.01337698223505735</v>
+        <v>0.01490816030081066</v>
       </c>
     </row>
   </sheetData>
